--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -402,8 +402,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.908675" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.521159" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.672771" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.191426" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -471,8 +471,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.176316" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.425653" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.057031" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.472781" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
